--- a/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Comp-Itga5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H2">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J2">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N2">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P2">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q2">
-        <v>18.58933901580175</v>
+        <v>20.26560190834667</v>
       </c>
       <c r="R2">
-        <v>18.58933901580175</v>
+        <v>182.39041717512</v>
       </c>
       <c r="S2">
-        <v>0.002429630829834656</v>
+        <v>0.002411522274785169</v>
       </c>
       <c r="T2">
-        <v>0.002429630829834656</v>
+        <v>0.002411522274785168</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H3">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J3">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N3">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P3">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q3">
-        <v>19.1406155731328</v>
+        <v>19.560466078714</v>
       </c>
       <c r="R3">
-        <v>19.1406155731328</v>
+        <v>176.044194708426</v>
       </c>
       <c r="S3">
-        <v>0.002501682801038047</v>
+        <v>0.002327614046073346</v>
       </c>
       <c r="T3">
-        <v>0.002501682801038047</v>
+        <v>0.002327614046073346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H4">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J4">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N4">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P4">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q4">
-        <v>10.5401136273415</v>
+        <v>12.522442451508</v>
       </c>
       <c r="R4">
-        <v>10.5401136273415</v>
+        <v>112.701982063572</v>
       </c>
       <c r="S4">
-        <v>0.001377595244090221</v>
+        <v>0.001490118529077067</v>
       </c>
       <c r="T4">
-        <v>0.001377595244090221</v>
+        <v>0.001490118529077067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.648035291369422</v>
+        <v>0.653906</v>
       </c>
       <c r="H5">
-        <v>0.648035291369422</v>
+        <v>1.961718</v>
       </c>
       <c r="I5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="J5">
-        <v>0.006783093819449736</v>
+        <v>0.00670030715761011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N5">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P5">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q5">
-        <v>3.62803458904675</v>
+        <v>3.958561214696</v>
       </c>
       <c r="R5">
-        <v>3.62803458904675</v>
+        <v>35.627050932264</v>
       </c>
       <c r="S5">
-        <v>0.0004741849444868123</v>
+        <v>0.0004710523076745291</v>
       </c>
       <c r="T5">
-        <v>0.0004741849444868123</v>
+        <v>0.000471052307674529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H6">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J6">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N6">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P6">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q6">
-        <v>2699.999018513046</v>
+        <v>2978.907024453454</v>
       </c>
       <c r="R6">
-        <v>2699.999018513046</v>
+        <v>26810.16322008109</v>
       </c>
       <c r="S6">
-        <v>0.3528904847195653</v>
+        <v>0.354477536688649</v>
       </c>
       <c r="T6">
-        <v>0.3528904847195653</v>
+        <v>0.3544775366886489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H7">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J7">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N7">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P7">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q7">
-        <v>2780.068899559265</v>
+        <v>2875.256805447551</v>
       </c>
       <c r="R7">
-        <v>2780.068899559265</v>
+        <v>25877.31124902796</v>
       </c>
       <c r="S7">
-        <v>0.3633556363511385</v>
+        <v>0.3421435920543104</v>
       </c>
       <c r="T7">
-        <v>0.3633556363511385</v>
+        <v>0.3421435920543103</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H8">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J8">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N8">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P8">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q8">
-        <v>1530.893402107909</v>
+        <v>1840.714721961822</v>
       </c>
       <c r="R8">
-        <v>1530.893402107909</v>
+        <v>16566.4324976564</v>
       </c>
       <c r="S8">
-        <v>0.2000881152250811</v>
+        <v>0.2190373902345181</v>
       </c>
       <c r="T8">
-        <v>0.2000881152250811</v>
+        <v>0.219037390234518</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>94.12355378380791</v>
+        <v>96.11977900000001</v>
       </c>
       <c r="H9">
-        <v>94.12355378380791</v>
+        <v>288.359337</v>
       </c>
       <c r="I9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="J9">
-        <v>0.9852069855430684</v>
+        <v>0.984900036429704</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N9">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P9">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q9">
-        <v>526.952024557239</v>
+        <v>581.8818440487642</v>
       </c>
       <c r="R9">
-        <v>526.952024557239</v>
+        <v>5236.936596438877</v>
       </c>
       <c r="S9">
-        <v>0.06887274924728341</v>
+        <v>0.0692415174522267</v>
       </c>
       <c r="T9">
-        <v>0.06887274924728341</v>
+        <v>0.06924151745222669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H10">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J10">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N10">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P10">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q10">
-        <v>5.455475094905395</v>
+        <v>7.255828827364444</v>
       </c>
       <c r="R10">
-        <v>5.455475094905395</v>
+        <v>65.30245944628</v>
       </c>
       <c r="S10">
-        <v>0.000713031833499305</v>
+        <v>0.0008634134292360241</v>
       </c>
       <c r="T10">
-        <v>0.000713031833499305</v>
+        <v>0.0008634134292360236</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H11">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J11">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N11">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P11">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q11">
-        <v>5.617260058123732</v>
+        <v>7.003364335907666</v>
       </c>
       <c r="R11">
-        <v>5.617260058123732</v>
+        <v>63.03027902316899</v>
       </c>
       <c r="S11">
-        <v>0.0007341771649231285</v>
+        <v>0.0008333712055955025</v>
       </c>
       <c r="T11">
-        <v>0.0007341771649231285</v>
+        <v>0.0008333712055955022</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H12">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J12">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N12">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P12">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q12">
-        <v>3.093242171900564</v>
+        <v>4.483493722002</v>
       </c>
       <c r="R12">
-        <v>3.093242171900564</v>
+        <v>40.351443498018</v>
       </c>
       <c r="S12">
-        <v>0.0004042874541480936</v>
+        <v>0.0005335170910968204</v>
       </c>
       <c r="T12">
-        <v>0.0004042874541480936</v>
+        <v>0.0005335170910968201</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.190181070433997</v>
+        <v>0.2341223333333333</v>
       </c>
       <c r="H13">
-        <v>0.190181070433997</v>
+        <v>0.702367</v>
       </c>
       <c r="I13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="J13">
-        <v>0.001990657083985551</v>
+        <v>0.002398955730318598</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N13">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P13">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q13">
-        <v>1.064731367111829</v>
+        <v>1.417310115257333</v>
       </c>
       <c r="R13">
-        <v>1.064731367111829</v>
+        <v>12.755791037316</v>
       </c>
       <c r="S13">
-        <v>0.0001391606314150234</v>
+        <v>0.0001686540043902518</v>
       </c>
       <c r="T13">
-        <v>0.0001391606314150234</v>
+        <v>0.0001686540043902518</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H14">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I14">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J14">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>28.6856892878765</v>
+        <v>30.99161333333333</v>
       </c>
       <c r="N14">
-        <v>28.6856892878765</v>
+        <v>92.97484</v>
       </c>
       <c r="O14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633812</v>
       </c>
       <c r="P14">
-        <v>0.358189182474223</v>
+        <v>0.3599121977633811</v>
       </c>
       <c r="Q14">
-        <v>16.49603172236245</v>
+        <v>18.14958752478667</v>
       </c>
       <c r="R14">
-        <v>16.49603172236245</v>
+        <v>163.34628772308</v>
       </c>
       <c r="S14">
-        <v>0.002156035091323749</v>
+        <v>0.002159725370711026</v>
       </c>
       <c r="T14">
-        <v>0.002156035091323749</v>
+        <v>0.002159725370711025</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H15">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I15">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J15">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.5363783856355</v>
+        <v>29.913269</v>
       </c>
       <c r="N15">
-        <v>29.5363783856355</v>
+        <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="P15">
-        <v>0.368811469755108</v>
+        <v>0.3473891556493311</v>
       </c>
       <c r="Q15">
-        <v>16.98523015861655</v>
+        <v>17.518077811201</v>
       </c>
       <c r="R15">
-        <v>16.98523015861655</v>
+        <v>157.662700300809</v>
       </c>
       <c r="S15">
-        <v>0.002219973438008348</v>
+        <v>0.002084578343351931</v>
       </c>
       <c r="T15">
-        <v>0.002219973438008348</v>
+        <v>0.00208457834335193</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H16">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I16">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J16">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.2647216404962</v>
+        <v>19.150218</v>
       </c>
       <c r="N16">
-        <v>16.2647216404962</v>
+        <v>57.450654</v>
       </c>
       <c r="O16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134164</v>
       </c>
       <c r="P16">
-        <v>0.2030924649958587</v>
+        <v>0.2223955550134163</v>
       </c>
       <c r="Q16">
-        <v>9.35321307584594</v>
+        <v>11.214923017122</v>
       </c>
       <c r="R16">
-        <v>9.35321307584594</v>
+        <v>100.934307154098</v>
       </c>
       <c r="S16">
-        <v>0.001222467072539308</v>
+        <v>0.001334529158724456</v>
       </c>
       <c r="T16">
-        <v>0.001222467072539308</v>
+        <v>0.001334529158724455</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.575061367946079</v>
+        <v>0.5856290000000001</v>
       </c>
       <c r="H17">
-        <v>0.575061367946079</v>
+        <v>1.756887</v>
       </c>
       <c r="I17">
-        <v>0.006019263553496365</v>
+        <v>0.00600070068236727</v>
       </c>
       <c r="J17">
-        <v>0.006019263553496365</v>
+        <v>0.006000700682367269</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.59851390404992</v>
+        <v>6.053716000000001</v>
       </c>
       <c r="N17">
-        <v>5.59851390404992</v>
+        <v>18.161148</v>
       </c>
       <c r="O17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387134</v>
       </c>
       <c r="P17">
-        <v>0.06990688277481021</v>
+        <v>0.07030309157387132</v>
       </c>
       <c r="Q17">
-        <v>3.21948906412809</v>
+        <v>3.545231647364001</v>
       </c>
       <c r="R17">
-        <v>3.21948906412809</v>
+        <v>31.907084826276</v>
       </c>
       <c r="S17">
-        <v>0.0004207879516249579</v>
+        <v>0.0004218678095798584</v>
       </c>
       <c r="T17">
-        <v>0.0004207879516249579</v>
+        <v>0.0004218678095798583</v>
       </c>
     </row>
   </sheetData>
